--- a/src/test/resources/dataSheets/fourPattern.xlsx
+++ b/src/test/resources/dataSheets/fourPattern.xlsx
@@ -24,76 +24,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
-  <si>
-    <t>Student Registration Number</t>
-  </si>
-  <si>
-    <t>Exam Series</t>
-  </si>
-  <si>
-    <t>Award Name</t>
-  </si>
-  <si>
-    <t>Sem</t>
-  </si>
-  <si>
-    <t>Regulation</t>
-  </si>
-  <si>
-    <t>ExamType</t>
-  </si>
-  <si>
-    <t>Practical Exam Final</t>
-  </si>
-  <si>
-    <t>Theory Exam</t>
-  </si>
-  <si>
-    <t>22401358004</t>
-  </si>
-  <si>
-    <t>Dec-24</t>
-  </si>
-  <si>
-    <t>PG PARAMEDICAL</t>
-  </si>
-  <si>
-    <t>Year 1</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>Supplementary</t>
-  </si>
-  <si>
-    <t>Paper 1</t>
-  </si>
-  <si>
-    <t>Paper 2</t>
-  </si>
-  <si>
-    <t>Paper 3</t>
-  </si>
-  <si>
-    <t>EP</t>
-  </si>
-  <si>
-    <t>Subject</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>PHYSIOTHERAPEUTIC-I</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+  <si>
+    <t>studregdnumber</t>
+  </si>
+  <si>
+    <t>subjectname</t>
+  </si>
+  <si>
+    <t>Finak marks</t>
+  </si>
+  <si>
+    <t>F22060001002</t>
+  </si>
+  <si>
+    <t>Entrepreneurship and Management &amp; Smart Technology</t>
+  </si>
+  <si>
+    <t>L23060002015</t>
+  </si>
+  <si>
+    <t>F22060001003</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +62,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -129,10 +95,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,85 +407,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2">
-        <v>53</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2">
-        <v>77</v>
-      </c>
-      <c r="K2">
-        <v>130</v>
-      </c>
-      <c r="L2">
-        <v>278</v>
-      </c>
-      <c r="M2" t="s">
-        <v>20</v>
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4">
+        <v>67</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
